--- a/PRSMREscore独有的.xlsx
+++ b/PRSMREscore独有的.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,27 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>Matched Peaks</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>Matched Fragments</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>Normalized Matched Fragments</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0.011356843993</t>
+          <t>FDR Value</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1065.0</t>
+          <t>PRSM ID</t>
         </is>
       </c>
     </row>
@@ -456,157 +456,157 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.014101057579</t>
+          <t>0.011356843993</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>293.0</t>
+          <t>1065.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.035733919736</t>
+          <t>0.014101057579</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>879.0</t>
+          <t>293.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.021106674273</t>
+          <t>0.035733919736</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>673.0</t>
+          <t>879.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.010778443114</t>
+          <t>0.021106674273</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>676.0</t>
+          <t>673.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.011336515513</t>
+          <t>0.010778443114</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1092.0</t>
+          <t>676.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.030623608018</t>
+          <t>0.011336515513</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>1092.0</t>
         </is>
       </c>
     </row>
@@ -623,137 +623,137 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.021603183627</t>
+          <t>0.030623608018</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1047.0</t>
+          <t>991.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.011897679952</t>
+          <t>0.021603183627</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1889.0</t>
+          <t>1047.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.011323003576</t>
+          <t>0.011897679952</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>840.0</t>
+          <t>1889.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.028555431131</t>
+          <t>0.011323003576</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>460.0</t>
+          <t>840.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.010784901138</t>
+          <t>0.028555431131</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1766.0</t>
+          <t>460.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -763,66 +763,66 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.010804321729</t>
+          <t>0.010784901138</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>978.0</t>
+          <t>1766.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.036692223439</t>
+          <t>0.010804321729</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>718.0</t>
+          <t>978.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.011869436202</t>
+          <t>0.036692223439</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1697.0</t>
+          <t>718.0</t>
         </is>
       </c>
     </row>
@@ -844,12 +844,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.011316259678</t>
+          <t>0.011869436202</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2217.0</t>
+          <t>1697.0</t>
         </is>
       </c>
     </row>
@@ -871,46 +871,46 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.011363636364</t>
+          <t>0.011316259678</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>2217.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.098377281947</t>
+          <t>0.011363636364</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1233.0</t>
+          <t>18.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -925,289 +925,289 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.022133938706</t>
+          <t>0.098377281947</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>445.0</t>
+          <t>1233.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.011876484561</t>
+          <t>0.022133938706</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2097.0</t>
+          <t>445.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.010228640193</t>
+          <t>0.011876484561</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2028.0</t>
+          <t>2097.0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.024830699774</t>
+          <t>0.010228640193</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1203.0</t>
+          <t>2028.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.011883541295</t>
+          <t>0.024830699774</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>1203.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.011897679952</t>
+          <t>0.011883541295</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>795.0</t>
+          <t>48.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.043783783784</t>
+          <t>0.011897679952</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1062.0</t>
+          <t>795.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.011350059737</t>
+          <t>0.043783783784</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>130.0</t>
+          <t>1062.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.03667214012</t>
+          <t>0.011350059737</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>897.0</t>
+          <t>130.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.026936026936</t>
+          <t>0.03667214012</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1209.0</t>
+          <t>897.0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.013633669235</t>
+          <t>0.026936026936</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1499.0</t>
+          <t>1209.0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1222,66 +1222,66 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.017411491584</t>
+          <t>0.013633669235</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2200.0</t>
+          <t>1499.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.010791366906</t>
+          <t>0.017411491584</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>822.0</t>
+          <t>2200.0</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.014645577036</t>
+          <t>0.010791366906</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2523.0</t>
+          <t>822.0</t>
         </is>
       </c>
     </row>
@@ -1293,34 +1293,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.014125956445</t>
+          <t>0.014645577036</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1513.0</t>
+          <t>2523.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1330,19 +1330,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.019031141869</t>
+          <t>0.014125956445</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2501.0</t>
+          <t>1513.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1357,53 +1357,53 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.015725101922</t>
+          <t>0.019031141869</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1753.0</t>
+          <t>2501.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.010228640193</t>
+          <t>0.015725101922</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>847.0</t>
+          <t>1753.0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>5</t>
@@ -1411,78 +1411,78 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.010823812387</t>
+          <t>0.010228640193</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1828.0</t>
+          <t>847.0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.010810810811</t>
+          <t>0.010823812387</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1944.0</t>
+          <t>1828.0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.013617525163</t>
+          <t>0.010810810811</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1238.0</t>
+          <t>1944.0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1492,19 +1492,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.011862396204</t>
+          <t>0.013617525163</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>819.0</t>
+          <t>1238.0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1519,39 +1519,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.018529241459</t>
+          <t>0.011862396204</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>785.0</t>
+          <t>819.0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.014134275618</t>
+          <t>0.018529241459</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>397.0</t>
+          <t>785.0</t>
         </is>
       </c>
     </row>
@@ -1563,103 +1563,103 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.058448459086</t>
+          <t>0.014134275618</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>780.0</t>
+          <t>397.0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.02005730659</t>
+          <t>0.058448459086</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>612.0</t>
+          <t>780.0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.01130952381</t>
+          <t>0.02005730659</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1104.0</t>
+          <t>612.0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.023163841808</t>
+          <t>0.01130952381</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>668.0</t>
+          <t>1104.0</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.023176936122</t>
+          <t>0.023163841808</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1431.0</t>
+          <t>668.0</t>
         </is>
       </c>
     </row>
@@ -1708,12 +1708,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.023190045249</t>
+          <t>0.023176936122</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2195.0</t>
+          <t>1431.0</t>
         </is>
       </c>
     </row>
@@ -1730,78 +1730,78 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.017971014493</t>
+          <t>0.023190045249</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>2195.0</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.031991174848</t>
+          <t>0.017971014493</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>889.0</t>
+          <t>81.0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.1680229775</t>
+          <t>0.031991174848</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>380.0</t>
+          <t>889.0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1816,73 +1816,73 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.086622245003</t>
+          <t>0.1680229775</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>491.0</t>
+          <t>380.0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.011890606421</t>
+          <t>0.086622245003</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1618.0</t>
+          <t>491.0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.010797840432</t>
+          <t>0.011890606421</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>559.0</t>
+          <t>1618.0</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1892,24 +1892,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.019020172911</t>
+          <t>0.010797840432</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>811.0</t>
+          <t>559.0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1919,294 +1919,294 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.0096327513546</t>
+          <t>0.019020172911</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1250.0</t>
+          <t>811.0</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.014176018901</t>
+          <t>0.0096327513546</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>399.0</t>
+          <t>1250.0</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.049919484702</t>
+          <t>0.014176018901</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1368.0</t>
+          <t>399.0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.016279069767</t>
+          <t>0.049919484702</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>731.0</t>
+          <t>1368.0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.015734265734</t>
+          <t>0.016279069767</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1965.0</t>
+          <t>731.0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.031076581576</t>
+          <t>0.015734265734</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2468.0</t>
+          <t>1965.0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.014142604596</t>
+          <t>0.031076581576</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>241.0</t>
+          <t>2468.0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.0474393531</t>
+          <t>0.014142604596</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2522.0</t>
+          <t>241.0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.016860465116</t>
+          <t>0.0474393531</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>815.0</t>
+          <t>2522.0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.014628437683</t>
+          <t>0.016860465116</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1359.0</t>
+          <t>815.0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.017401392111</t>
+          <t>0.014628437683</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1020.0</t>
+          <t>1359.0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2216,348 +2216,348 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.092111959288</t>
+          <t>0.017401392111</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1386.0</t>
+          <t>1020.0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.013609467456</t>
+          <t>0.092111959288</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1581.0</t>
+          <t>1386.0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.03008356546</t>
+          <t>0.013609467456</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>566.0</t>
+          <t>1581.0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.030555555556</t>
+          <t>0.03008356546</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>566.0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.029066517608</t>
+          <t>0.030555555556</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1260.0</t>
+          <t>180.0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.031543995573</t>
+          <t>0.029066517608</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2090.0</t>
+          <t>1260.0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.010817307692</t>
+          <t>0.031543995573</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2445.0</t>
+          <t>2090.0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.18504495977</t>
+          <t>0.010817307692</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>885.0</t>
+          <t>2445.0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.019540229885</t>
+          <t>0.18504495977</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>551.0</t>
+          <t>885.0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.021142857143</t>
+          <t>0.019540229885</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2429.0</t>
+          <t>551.0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.011329755516</t>
+          <t>0.021142857143</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>300.0</t>
+          <t>2429.0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.025352112676</t>
+          <t>0.011329755516</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2405.0</t>
+          <t>300.0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.015715948778</t>
+          <t>0.025352112676</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>218.0</t>
+          <t>2405.0</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2572,218 +2572,255 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.018987341772</t>
+          <t>0.015715948778</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>951.0</t>
+          <t>218.0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.015771028037</t>
+          <t>0.018987341772</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2411.0</t>
+          <t>951.0</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.011343283582</t>
+          <t>0.015771028037</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1071.0</t>
+          <t>2411.0</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.052406417112</t>
+          <t>0.011343283582</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2327.0</t>
+          <t>1071.0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.022121384005</t>
+          <t>0.052406417112</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2359.0</t>
+          <t>2327.0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.032026504694</t>
+          <t>0.022121384005</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1371.0</t>
+          <t>2359.0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.018486424032</t>
+          <t>0.032026504694</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2194.0</t>
+          <t>1371.0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.014109347443</t>
+          <t>0.018486424032</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>362.0</t>
+          <t>2194.0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.014109347443</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>input1.6.2/test/Yeast_9_ms2_toppic_prsm.xml</t>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>

--- a/PRSMREscore独有的.xlsx
+++ b/PRSMREscore独有的.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,233 +461,233 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.010540184453</t>
+          <t>0.011898940505</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>789.0</t>
+          <t>4988.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.010471204188</t>
+          <t>0.01096742511</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>410.0</t>
+          <t>5941.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.015483870968</t>
+          <t>0.011272667865</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>384.0</t>
+          <t>5867.0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.012970168612</t>
+          <t>0.01112565445</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>546.0</t>
+          <t>7411.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.015444015444</t>
+          <t>0.011580492579</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>168.0</t>
+          <t>5696.0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.01540436457</t>
+          <t>0.011120196239</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1115.0</t>
+          <t>5252.0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.011734028683</t>
+          <t>0.011578604044</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1073.0</t>
+          <t>6255.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.01171875</t>
+          <t>0.01158616188</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1306.0</t>
+          <t>7293.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.01055408971</t>
+          <t>0.01238188335</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>991.0</t>
+          <t>8089.0</t>
         </is>
       </c>
     </row>
@@ -699,560 +699,6473 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.035194174757</t>
+          <t>0.011737854581</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1231.0</t>
+          <t>7332.0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.010512483574</t>
+          <t>0.018666241225</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>278.0</t>
+          <t>2414.0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.017608452057</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>395.0</t>
+          <t>5677.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.053927315358</t>
+          <t>0.012059973924</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>859.0</t>
+          <t>6043.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.017879948914</t>
+          <t>0.01593689633</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>406.0</t>
+          <t>2206.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.011703511053</t>
+          <t>0.0133289987</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>274.0</t>
+          <t>5256.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.019108280255</t>
+          <t>0.036815462494</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1309.0</t>
+          <t>2142.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.016624040921</t>
+          <t>0.013344182262</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>5903.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.019083969466</t>
+          <t>0.013342011064</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>952.0</t>
+          <t>7842.0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0092470277411</t>
+          <t>0.016380279428</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>640.0</t>
+          <t>8051.0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.044311377246</t>
+          <t>0.016369764083</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>707.0</t>
+          <t>7289.0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.026282853567</t>
+          <t>0.017147435897</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1078.0</t>
+          <t>5899.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.056976744186</t>
+          <t>0.01000656168</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>5447.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.023869346734</t>
+          <t>0.018361807441</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>582.0</t>
+          <t>8291.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.020304568528</t>
+          <t>0.014734455959</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1203.0</t>
+          <t>5657.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.025062656642</t>
+          <t>0.015647685111</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>826.0</t>
+          <t>6195.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.017857142857</t>
+          <t>0.014255629354</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1245.0</t>
+          <t>6270.0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.033251231527</t>
+          <t>0.01564516129</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>121.0</t>
+          <t>5572.0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.011764705882</t>
+          <t>0.015801354402</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>215.0</t>
+          <t>7528.0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.29388560158</t>
+          <t>0.02045022194</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>127.0</t>
+          <t>7971.0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.019990480723</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5089.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.010013131976</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5054.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.017150184324</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6843.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.016364511471</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>7441.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.019218551461</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6945.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.019371228962</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6978.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01851556265</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>6219.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.019093078759</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6620.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02355897597</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8412.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.024332810047</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2245.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.2304739211</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2252.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.028482490272</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5498.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.010168935542</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>8044.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.036087223587</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>4409.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.014260249554</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6779.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.011127475045</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7771.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.013326832439</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6449.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.043120524151</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7544.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.032911001236</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>9437.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.015349814186</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7171.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.032622139765</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2483.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.015200517464</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>8125.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.22474445772</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2573.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.018213772168</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6684.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.038396818112</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1387.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.017605633803</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6811.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.017754318618</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>5373.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.014107345549</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2229.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01000984575</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>8971.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.038249694002</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>7763.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.07482692591</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2334.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.011265306122</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>898.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.01425793908</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2808.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.010655737705</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>8891.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.010809040288</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>6591.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.026229508197</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3282.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.011129296236</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3062.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.011739768466</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>7192.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.024929444967</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3006.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.013339840573</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>7453.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.027288320599</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>9386.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.020919175911</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>7883.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.014724919094</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>4200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.015354776144</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8562.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.018955081236</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>7134.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.018518518519</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>7013.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.011274509804</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4191.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.012373819603</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1549.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.032332920792</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2826.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.013344182262</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>9514.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.014412955466</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>5704.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.042676421277</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>3741.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.016240553144</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>8990.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.021972810623</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>7361.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.022834645669</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>6334.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.022088987062</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>8531.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.015954875101</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.013625304136</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>8556.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.015344855435</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3681.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.016090104586</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.022684310019</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>7565.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.014264872751</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>4434.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.018367672896</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1092.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01790567546</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3586.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.024321355719</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>8651.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01774864087</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>7180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.02462745098</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>5333.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.0136341503</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1708.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.014722536806</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>678.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.015942028986</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>7143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.0126953125</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3998.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.012379866428</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>9601.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.016385542169</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6894.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01318359375</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>5576.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.014574898785</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>3751.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.033754623921</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>6656.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.013337670787</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>5785.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.036946190403</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>7922.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.016992625842</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2803.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.11022500712</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2591.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.032347933756</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>6774.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.044798785118</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>7770.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.014262560778</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2889.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.015352294764</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1450.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01534733441</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>919.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.012532552083</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2732.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.015342377261</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2678.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.049901708755</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>4298.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.032766615147</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>8005.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.016372391653</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2451.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.033184133354</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>5534.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.016375020067</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>8907.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.01775147929</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2534.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.017902813299</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>932.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.01623533194</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>8446.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.16701087705</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2429.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.010659232535</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>7939.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.054208703509</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2775.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.015960019345</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1645.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.015947164948</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>6994.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.223565356</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>6178.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.016361886429</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3341.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.016356638871</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>5554.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.01033125615</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>9581.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.010495244342</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2717.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.018216682646</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2942.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.010016420361</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>6848.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.012220954864</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1971.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.047251249432</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2522.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.16535758578</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>4689.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.10355199083</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>6851.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.092767067691</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>9067.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.016243165005</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>7851.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.02167721519</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2711.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.016514349848</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.019096117123</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>5875.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.017144688351</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1042.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.018660287081</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1089.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.018663263678</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>6899.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.019523809524</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>8171.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.018669219722</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.040470372633</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>5078.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.020142743854</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>5869.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.034912334666</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>6233.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.010650499754</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>9371.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.016232722597</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>3145.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.017762842055</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.017456758488</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>6323.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.011270826527</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>6109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.0172993753</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2758.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.019227713332</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>7357.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.015337423313</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>9023.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.018961121734</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>8008.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.015652735194</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>3365.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.018967166082</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>662.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.018816775634</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.010019710907</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.019090041362</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>9160.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.021983235806</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>5541.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.013318174436</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>2464.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.017150184324</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>5143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.019105238019</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>9122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.028054862843</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>8251.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.010812581913</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1945.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.010652245166</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>5911.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.024336630554</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>859.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.011589944499</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>5351.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.024336630554</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>7606.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.021391221676</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>9520.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.024929444967</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>6815.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.025371965544</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>6696.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.025512599781</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>5536.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.032905916886</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>8082.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01867219917</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2476.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.019243002545</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1626.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.012377850163</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2847.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.018967166082</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.019233826101</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>9209.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.029850746269</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>7930.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.095823095823</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>3844.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.037813839559</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2495.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.032322919889</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2824.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.037530637255</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>6567.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.018059773054</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>8734.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.040336134454</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>6647.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.0247804266</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>6934.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.025231154991</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>7481.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.20868516285</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>4468.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.026081524285</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>6002.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.018216682646</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>7725.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.021384444796</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>6193.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.021377672209</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>5908.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.014107345549</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2569.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.017141941685</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>6819.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.020453464405</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1756.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.021831988609</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>9561.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.016992625842</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1593.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.053654860588</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>3966.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.01111474338</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>9072.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.1944331847</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>6208.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.016237942122</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1594.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.026377399719</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>3427.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.044812395564</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>5611.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.019831826115</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4036.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.015493867011</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>6984.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.043094259175</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>5591.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.026085598251</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>4002.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.041367730118</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>4520.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.010019710907</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>8919.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.016087516088</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1272.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.023120478138</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>7979.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.030759670654</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>6495.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.032383018283</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>6758.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.036951855259</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>4432.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.016359262229</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1795.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.020446980504</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.12344808126</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>9630.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.025777222309</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>5672.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.015339899887</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>5062.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.011122015047</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>6890.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.025078369906</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2848.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.03638876094</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.019526909033</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2696.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.024474427361</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1417.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.014574898785</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>5406.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.017757158855</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>6272.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.022068095839</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>6645.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.017614091273</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>3822.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.11272004543</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>5446.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.023420308079</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1509.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.023124115149</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.020145939086</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>8979.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.015205435134</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>4019.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.011123834451</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.011584271496</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1849.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.016390808292</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>7539.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>0.033045089561</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>6866.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.032472552961</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>8402.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.034339390206</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>6074.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
           <t>***</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D250" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>***</t>
         </is>
